--- a/data/trans_orig/P1421-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29155</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19732</v>
+        <v>19797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40964</v>
+        <v>41997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0282588959759044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01912511178527392</v>
+        <v>0.01918788123901934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03970472726441641</v>
+        <v>0.04070560591823162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -765,19 +765,19 @@
         <v>75248</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58154</v>
+        <v>59644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91958</v>
+        <v>93540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05721773783808376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04421944708380818</v>
+        <v>0.04535307391430207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06992422123683702</v>
+        <v>0.07112707440063673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -786,19 +786,19 @@
         <v>104403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86469</v>
+        <v>85220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126405</v>
+        <v>126504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04448676503455544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03684484612155234</v>
+        <v>0.03631281062071353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0538619792499042</v>
+        <v>0.05390409636520473</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1002568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>990759</v>
+        <v>989726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1011991</v>
+        <v>1011926</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9717411040240956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9602952727355835</v>
+        <v>0.9592943940817682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9808748882147259</v>
+        <v>0.9808121187609804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1218</v>
@@ -836,19 +836,19 @@
         <v>1239865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1223155</v>
+        <v>1221573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1256959</v>
+        <v>1255469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9427822621619163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9300757787631631</v>
+        <v>0.9288729255993633</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9557805529161919</v>
+        <v>0.954646926085698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2227</v>
@@ -857,19 +857,19 @@
         <v>2242432</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2220430</v>
+        <v>2220331</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2260366</v>
+        <v>2261615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9555132349654446</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9461380207500958</v>
+        <v>0.9460959036347953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9631551538784476</v>
+        <v>0.9636871893792865</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>31300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20452</v>
+        <v>21695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43633</v>
+        <v>44491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01848341567147691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01207760325698003</v>
+        <v>0.01281148923194383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02576629370044782</v>
+        <v>0.02627320586511732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>90392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72677</v>
+        <v>74022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112235</v>
+        <v>110523</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05693368179647681</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04577573828936872</v>
+        <v>0.04662312998630284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07069124650200208</v>
+        <v>0.06961343214752184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -1003,19 +1003,19 @@
         <v>121692</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100701</v>
+        <v>101130</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143908</v>
+        <v>148161</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03708898061138889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03069127834981071</v>
+        <v>0.03082198661654904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04385975090528178</v>
+        <v>0.04515615703751643</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1662113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1649780</v>
+        <v>1648922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1672961</v>
+        <v>1671718</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9815165843285231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9742337062995522</v>
+        <v>0.9737267941348816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.98792239674302</v>
+        <v>0.9871885107680561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1465</v>
@@ -1053,19 +1053,19 @@
         <v>1497281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1475438</v>
+        <v>1477150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1514996</v>
+        <v>1513651</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9430663182035232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.929308753497999</v>
+        <v>0.9303865678524786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9542242617106316</v>
+        <v>0.9533768700136973</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3084</v>
@@ -1074,19 +1074,19 @@
         <v>3159394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3137178</v>
+        <v>3132925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3180385</v>
+        <v>3179956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9629110193886111</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9561402490947182</v>
+        <v>0.9548438429624831</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9693087216501892</v>
+        <v>0.9691780133834508</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10562</v>
+        <v>10460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28041</v>
+        <v>27335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03267316611588442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01915455873321482</v>
+        <v>0.01896990964827009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05085291068697883</v>
+        <v>0.04957309751229281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>29260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20298</v>
+        <v>20523</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40993</v>
+        <v>42067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06141817104895188</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04260570276402153</v>
+        <v>0.04307844938990302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08604504844072458</v>
+        <v>0.08830011285377523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1220,19 +1220,19 @@
         <v>47277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35766</v>
+        <v>34454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62216</v>
+        <v>62272</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04599695874907253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03479797061587372</v>
+        <v>0.03352143791936105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06053205346077622</v>
+        <v>0.06058630584942688</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>533392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523367</v>
+        <v>524073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540846</v>
+        <v>540948</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9673268338841156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9491470893130227</v>
+        <v>0.9504269024877074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808454412667852</v>
+        <v>0.9810300903517302</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -1270,19 +1270,19 @@
         <v>447152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435419</v>
+        <v>434345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456114</v>
+        <v>455889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9385818289510481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9139549515592754</v>
+        <v>0.9116998871462247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9573942972359784</v>
+        <v>0.956921550610097</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>933</v>
@@ -1291,19 +1291,19 @@
         <v>980543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>965604</v>
+        <v>965548</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>992054</v>
+        <v>993366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9540030412509275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9394679465392235</v>
+        <v>0.9394136941505733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.965202029384126</v>
+        <v>0.966478562080639</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>78472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02394951982963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1416,19 +1416,19 @@
         <v>194900</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05767647018032619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>267</v>
@@ -1437,19 +1437,19 @@
         <v>273372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04107308671545017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3198071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3179447</v>
+        <v>3178420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3214632</v>
+        <v>3214128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.97605048017037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9703662792256297</v>
+        <v>0.9700528596717318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9811046473129927</v>
+        <v>0.9809510530874029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3108</v>
@@ -1487,19 +1487,19 @@
         <v>3184297</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3155739</v>
+        <v>3154445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3211199</v>
+        <v>3207993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9423235298196738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9338725956240463</v>
+        <v>0.9334894274670542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9502846685148514</v>
+        <v>0.9493358859897569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6244</v>
@@ -1508,19 +1508,19 @@
         <v>6382369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6350811</v>
+        <v>6349588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6413799</v>
+        <v>6413367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9589269132845498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9541854726271671</v>
+        <v>0.9540016793377873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9636491041877405</v>
+        <v>0.9635842936146383</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>15749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9452</v>
+        <v>8985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26850</v>
+        <v>26140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01615862021073235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009697551161592086</v>
+        <v>0.009218323091066587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02754866818845015</v>
+        <v>0.02682012256942368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -1872,19 +1872,19 @@
         <v>79360</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64112</v>
+        <v>63648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100532</v>
+        <v>98818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05932123651449606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04792387587792084</v>
+        <v>0.04757657952682945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07514749537840731</v>
+        <v>0.07386605903581987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -1893,19 +1893,19 @@
         <v>95109</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75292</v>
+        <v>77376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115646</v>
+        <v>118485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04112913191642633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03255950004518501</v>
+        <v>0.03346084502304187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05001048494307737</v>
+        <v>0.05123813315725396</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>958894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>947793</v>
+        <v>948503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>965191</v>
+        <v>965658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9838413797892677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724513318115504</v>
+        <v>0.9731798774305763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9903024488384079</v>
+        <v>0.9907816769089334</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1173</v>
@@ -1943,19 +1943,19 @@
         <v>1258437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1237265</v>
+        <v>1238979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1273685</v>
+        <v>1274149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9406787634855039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9248525046215929</v>
+        <v>0.9261339409641803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9520761241220793</v>
+        <v>0.9524234204731706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2067</v>
@@ -1964,19 +1964,19 @@
         <v>2217331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2196794</v>
+        <v>2193955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2237148</v>
+        <v>2235064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9588708680835737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9499895150569226</v>
+        <v>0.9487618668427461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.967440499954815</v>
+        <v>0.9665391549769581</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>23407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16284</v>
+        <v>15256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34959</v>
+        <v>33172</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0119242890877625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008295867356011098</v>
+        <v>0.00777199008918874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01780987619362719</v>
+        <v>0.01689912130877066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -2089,19 +2089,19 @@
         <v>85216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69406</v>
+        <v>68345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104464</v>
+        <v>108678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04856753507846883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03955700210016852</v>
+        <v>0.03895222744736428</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05953774604691717</v>
+        <v>0.06193904274821705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -2110,19 +2110,19 @@
         <v>108623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89488</v>
+        <v>89538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131159</v>
+        <v>132396</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0292191423950265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02407195085213543</v>
+        <v>0.02408546160662693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03528144752374036</v>
+        <v>0.03561401465383701</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1939520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1927968</v>
+        <v>1929755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1946643</v>
+        <v>1947671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9880757109122374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9821901238063728</v>
+        <v>0.9831008786912294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9917041326439889</v>
+        <v>0.9922280099108114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1554</v>
@@ -2160,19 +2160,19 @@
         <v>1669376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1650128</v>
+        <v>1645914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1685186</v>
+        <v>1686247</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9514324649215312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9404622539530827</v>
+        <v>0.9380609572517833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9604429978998312</v>
+        <v>0.9610477725526357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3385</v>
@@ -2181,19 +2181,19 @@
         <v>3608896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3586360</v>
+        <v>3585123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3628031</v>
+        <v>3627981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9707808576049735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9647185524762596</v>
+        <v>0.964385985346163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9759280491478646</v>
+        <v>0.9759145383933731</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6881</v>
+        <v>6759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004428574394808953</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01429974235750423</v>
+        <v>0.01404658159002575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2306,19 +2306,19 @@
         <v>25181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16771</v>
+        <v>16514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37519</v>
+        <v>38082</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0549039151505672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03656721211575913</v>
+        <v>0.03600621927246406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08180624919296453</v>
+        <v>0.08303457615641759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2327,19 +2327,19 @@
         <v>27312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17314</v>
+        <v>18924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38470</v>
+        <v>39052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02906067899678682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01842251844509526</v>
+        <v>0.02013594997212572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04093343818745031</v>
+        <v>0.04155286162310991</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>479050</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474300</v>
+        <v>474422</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -2365,7 +2365,7 @@
         <v>0.9955714256051911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9857002576424966</v>
+        <v>0.9859534184099742</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>433450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>421112</v>
+        <v>420549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>441860</v>
+        <v>442117</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9450960848494327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9181937508070357</v>
+        <v>0.9169654238435823</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9634327878842409</v>
+        <v>0.9639937807275359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -2398,19 +2398,19 @@
         <v>912501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>901343</v>
+        <v>900761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>922499</v>
+        <v>920889</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9709393210032132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9590665618125497</v>
+        <v>0.9584471383768901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9815774815549048</v>
+        <v>0.9798640500278744</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>41286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28629</v>
+        <v>29959</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55694</v>
+        <v>56144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01207643892111679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008374106989995926</v>
+        <v>0.008763241547040574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01629063944025876</v>
+        <v>0.01642239852757712</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -2523,19 +2523,19 @@
         <v>189757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161429</v>
+        <v>161287</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216426</v>
+        <v>216828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05343721400394215</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04546000207459546</v>
+        <v>0.04541995459856366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0609476810839223</v>
+        <v>0.06106078928402379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -2544,19 +2544,19 @@
         <v>231043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202586</v>
+        <v>203819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>262018</v>
+        <v>264418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03314928651225815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02906641228780197</v>
+        <v>0.02924328121826645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03759348194737065</v>
+        <v>0.03793786049956851</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3377465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3363057</v>
+        <v>3362607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3390122</v>
+        <v>3388792</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9879235610788832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9837093605597412</v>
+        <v>0.9835776014724223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916258930100039</v>
+        <v>0.9912367584529593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3115</v>
@@ -2594,19 +2594,19 @@
         <v>3361263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3334594</v>
+        <v>3334192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3389591</v>
+        <v>3389733</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9465627859960578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9390523189160775</v>
+        <v>0.9389392107159762</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9545399979254044</v>
+        <v>0.9545800454014363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6276</v>
@@ -2615,19 +2615,19 @@
         <v>6738728</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6707753</v>
+        <v>6705353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6767185</v>
+        <v>6765952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9668507134877419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9624065180526293</v>
+        <v>0.9620621395004315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9709335877121981</v>
+        <v>0.9707567187817335</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>15747</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9645</v>
+        <v>9157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24763</v>
+        <v>24355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02087467708421444</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01278618216174516</v>
+        <v>0.01213921602231771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0328268577060654</v>
+        <v>0.03228598196976248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2979,19 +2979,19 @@
         <v>71704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55674</v>
+        <v>55374</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91335</v>
+        <v>91393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07208928197371206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05597268244760775</v>
+        <v>0.05567120438461414</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0918252804755504</v>
+        <v>0.09188409336473739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3000,19 +3000,19 @@
         <v>87451</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70942</v>
+        <v>70079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109362</v>
+        <v>108049</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05000042054159805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04056101999248188</v>
+        <v>0.04006797277928852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06252780407373636</v>
+        <v>0.06177742877155687</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>738600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>729584</v>
+        <v>729992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>744702</v>
+        <v>745190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9791253229157856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9671731422939343</v>
+        <v>0.9677140180302368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872138178382546</v>
+        <v>0.9878607839776823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -3050,19 +3050,19 @@
         <v>922956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>903325</v>
+        <v>903267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>938986</v>
+        <v>939286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9279107180262879</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9081747195244496</v>
+        <v>0.9081159066352625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9440273175523921</v>
+        <v>0.9443287956153855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1575</v>
@@ -3071,19 +3071,19 @@
         <v>1661556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1639645</v>
+        <v>1640958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1678065</v>
+        <v>1678928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.949999579458402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9374721959262636</v>
+        <v>0.9382225712284431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9594389800075181</v>
+        <v>0.9599320272207115</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>22756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14340</v>
+        <v>14788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34281</v>
+        <v>35599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01095924546525022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006906200354613966</v>
+        <v>0.007122094755094553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01650979888567514</v>
+        <v>0.01714447678470799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -3196,19 +3196,19 @@
         <v>95274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77627</v>
+        <v>76624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116573</v>
+        <v>118330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04791749383546821</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03904183999360756</v>
+        <v>0.03853769426761922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05862928961604157</v>
+        <v>0.05951310931455546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3217,19 +3217,19 @@
         <v>118030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98861</v>
+        <v>97847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144423</v>
+        <v>141103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02903791258996208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02432193412860949</v>
+        <v>0.02407234993418016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03553113039983941</v>
+        <v>0.03471433462532883</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2053629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2042104</v>
+        <v>2040786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2062045</v>
+        <v>2061597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9890407545347498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9834902011143247</v>
+        <v>0.9828555232152919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9930937996453859</v>
+        <v>0.9928779052449055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1819</v>
@@ -3267,19 +3267,19 @@
         <v>1893026</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1871727</v>
+        <v>1869970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1910673</v>
+        <v>1911676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9520825061645318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9413707103839585</v>
+        <v>0.9404868906854446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9609581600063924</v>
+        <v>0.9614623057323808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3750</v>
@@ -3288,19 +3288,19 @@
         <v>3946655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3920262</v>
+        <v>3923582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3965824</v>
+        <v>3966838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9709620874100379</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9644688696001606</v>
+        <v>0.9652856653746712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9756780658713905</v>
+        <v>0.9759276500658199</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>9373</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4325</v>
+        <v>4850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16847</v>
+        <v>17511</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01713870417770576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007908843207254091</v>
+        <v>0.008869284630760085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0308055851511788</v>
+        <v>0.03201884907947901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3413,19 +3413,19 @@
         <v>27720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18722</v>
+        <v>18918</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39910</v>
+        <v>40096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05047903413278843</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03409248461958204</v>
+        <v>0.03445040759172427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07267784362455065</v>
+        <v>0.07301530125559019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -3434,19 +3434,19 @@
         <v>37093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26866</v>
+        <v>25421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49537</v>
+        <v>49110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03384315385252171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02451245151211751</v>
+        <v>0.02319403408199618</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04519702127912322</v>
+        <v>0.04480724346408074</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>537513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530039</v>
+        <v>529375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542561</v>
+        <v>542036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9828612958222942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9691944148488213</v>
+        <v>0.9679811509205211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.992091156792746</v>
+        <v>0.9911307153692401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -3484,19 +3484,19 @@
         <v>521420</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>509230</v>
+        <v>509044</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>530418</v>
+        <v>530222</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9495209658672116</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9273221563754493</v>
+        <v>0.92698469874441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.965907515380418</v>
+        <v>0.9655495924082759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>992</v>
@@ -3505,19 +3505,19 @@
         <v>1058934</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1046490</v>
+        <v>1046917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1069161</v>
+        <v>1070606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9661568461474783</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548029787208767</v>
+        <v>0.9551927565359193</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9754875484878824</v>
+        <v>0.9768059659180037</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>47875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35371</v>
+        <v>35165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63089</v>
+        <v>61689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01417427309362643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01047215880068701</v>
+        <v>0.0104110450501686</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01867847229161344</v>
+        <v>0.01826419329334273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>178</v>
@@ -3630,19 +3630,19 @@
         <v>194699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>169549</v>
+        <v>168817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>226550</v>
+        <v>228796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05512265689947143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04800240242286254</v>
+        <v>0.04779519336012067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06414019756587702</v>
+        <v>0.06477631489724167</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -3651,19 +3651,19 @@
         <v>242574</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>212872</v>
+        <v>208624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>274123</v>
+        <v>271471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03510621263235248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.030807601570633</v>
+        <v>0.03019278950535712</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03967211724930247</v>
+        <v>0.03928829769155458</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3329743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3314529</v>
+        <v>3315929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3342247</v>
+        <v>3342453</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9858257269063736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9813215277083865</v>
+        <v>0.9817358067066573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895278411993129</v>
+        <v>0.9895889549498313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3148</v>
@@ -3701,19 +3701,19 @@
         <v>3337401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3305550</v>
+        <v>3303304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3362551</v>
+        <v>3363283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9448773431005286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9358598024341224</v>
+        <v>0.9352236851027586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9519975975771373</v>
+        <v>0.9522048066398795</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6317</v>
@@ -3722,19 +3722,19 @@
         <v>6667144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6635595</v>
+        <v>6638247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6696846</v>
+        <v>6701094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9648937873676475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9603278827506969</v>
+        <v>0.9607117023084454</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.969192398429367</v>
+        <v>0.9698072104946427</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>22490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15135</v>
+        <v>15104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32594</v>
+        <v>32075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03901493201396895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02625516945199098</v>
+        <v>0.02620108837362882</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05654326988338028</v>
+        <v>0.05564218044265533</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>171</v>
@@ -4086,19 +4086,19 @@
         <v>96888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84494</v>
+        <v>83433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111683</v>
+        <v>111005</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1181634969887694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1030481861561898</v>
+        <v>0.1017544510030633</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1362079290072475</v>
+        <v>0.13538075887108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -4107,19 +4107,19 @@
         <v>119378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104420</v>
+        <v>103636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137678</v>
+        <v>137505</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08549011115462943</v>
+        <v>0.08549011115462941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07477811294451533</v>
+        <v>0.07421709163615207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09859576153385259</v>
+        <v>0.09847133840708026</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>553956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>543852</v>
+        <v>544371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561311</v>
+        <v>561342</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9609850679860311</v>
+        <v>0.9609850679860309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.94345673011662</v>
+        <v>0.9443578195573447</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9737448305480093</v>
+        <v>0.9737989116263713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1253</v>
@@ -4157,19 +4157,19 @@
         <v>723059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>708264</v>
+        <v>708942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>735453</v>
+        <v>736514</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8818365030112307</v>
+        <v>0.8818365030112306</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8637920709927526</v>
+        <v>0.8646192411289202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8969518138438102</v>
+        <v>0.8982455489969372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1911</v>
@@ -4178,19 +4178,19 @@
         <v>1277015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1258715</v>
+        <v>1258888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1291973</v>
+        <v>1292757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9145098888453705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9014042384661475</v>
+        <v>0.9015286615929198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9252218870554845</v>
+        <v>0.9257829083638479</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>107382</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86394</v>
+        <v>86893</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130902</v>
+        <v>131991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04819751619283812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03877735135962886</v>
+        <v>0.03900097965061312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05875435343440706</v>
+        <v>0.05924300822064495</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>344</v>
@@ -4303,19 +4303,19 @@
         <v>249159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220770</v>
+        <v>220689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>274980</v>
+        <v>277931</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1148968987672745</v>
+        <v>0.1148968987672744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1018056528211949</v>
+        <v>0.1017685224146977</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1268038640014368</v>
+        <v>0.1281649547837173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>440</v>
@@ -4324,19 +4324,19 @@
         <v>356541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>323976</v>
+        <v>323970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>395007</v>
+        <v>391564</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08109649985425592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07368943918992643</v>
+        <v>0.07368819913807337</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0898457751839863</v>
+        <v>0.08906252712355846</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2120578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2097058</v>
+        <v>2095969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2141566</v>
+        <v>2141067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9518024838071619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9412456465655926</v>
+        <v>0.940756991779355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9612226486403711</v>
+        <v>0.9609990203493868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2573</v>
@@ -4374,19 +4374,19 @@
         <v>1919384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1893563</v>
+        <v>1890612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1947773</v>
+        <v>1947854</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8851031012327257</v>
+        <v>0.8851031012327255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.873196135998563</v>
+        <v>0.8718350452162826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.898194347178805</v>
+        <v>0.8982314775853024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4467</v>
@@ -4395,19 +4395,19 @@
         <v>4039963</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4001497</v>
+        <v>4004940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4072528</v>
+        <v>4072534</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9189035001457438</v>
+        <v>0.918903500145744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9101542248160136</v>
+        <v>0.9109374728764414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9263105608100735</v>
+        <v>0.9263118008619267</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>29194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20217</v>
+        <v>19666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42594</v>
+        <v>43508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04102640315578556</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02841152671625652</v>
+        <v>0.02763736419707444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05985746911136898</v>
+        <v>0.06114275362410759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -4520,19 +4520,19 @@
         <v>75739</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61263</v>
+        <v>61807</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91100</v>
+        <v>92006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1031597467765445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08344298065661629</v>
+        <v>0.08418395607228994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1240818242470022</v>
+        <v>0.1253154268018857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -4541,19 +4541,19 @@
         <v>104933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87093</v>
+        <v>88552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124610</v>
+        <v>127333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07257886050762917</v>
+        <v>0.07257886050762916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06023964073537146</v>
+        <v>0.06124858653784657</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08618881669151662</v>
+        <v>0.08807211216111882</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>682393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668993</v>
+        <v>668079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>691370</v>
+        <v>691921</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9589735968442145</v>
+        <v>0.9589735968442143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9401425308886311</v>
+        <v>0.9388572463758922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9715884732837433</v>
+        <v>0.9723626358029255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>904</v>
@@ -4591,19 +4591,19 @@
         <v>658456</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643095</v>
+        <v>642189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672932</v>
+        <v>672388</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8968402532234555</v>
+        <v>0.8968402532234556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8759181757529977</v>
+        <v>0.8746845731981142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9165570193433835</v>
+        <v>0.9158160439277102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1558</v>
@@ -4612,19 +4612,19 @@
         <v>1340849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1321172</v>
+        <v>1318449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1358689</v>
+        <v>1357230</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.927421139492371</v>
+        <v>0.9274211394923711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9138111833084832</v>
+        <v>0.9119278878388812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9397603592646284</v>
+        <v>0.9387514134621534</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>159066</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133677</v>
+        <v>134860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187040</v>
+        <v>189915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04524070281955656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03801961434602643</v>
+        <v>0.03835616535392241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05319703117524564</v>
+        <v>0.05401470312921862</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>614</v>
@@ -4737,19 +4737,19 @@
         <v>421786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>389450</v>
+        <v>389691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>458852</v>
+        <v>457485</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1133015674045697</v>
+        <v>0.1133015674045698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1046152801461528</v>
+        <v>0.1046800337514864</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1232583746031391</v>
+        <v>0.1228912139951878</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>768</v>
@@ -4758,19 +4758,19 @@
         <v>580852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>538322</v>
+        <v>536987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>627370</v>
+        <v>626904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08024283055598673</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07436744563355076</v>
+        <v>0.0741829646095534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08666911123180425</v>
+        <v>0.08660471170185524</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3356928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3328954</v>
+        <v>3326079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3382317</v>
+        <v>3381134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9547592971804434</v>
+        <v>0.9547592971804436</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9468029688247545</v>
+        <v>0.9459852968707815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9619803856539736</v>
+        <v>0.9616438346460776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4730</v>
@@ -4808,19 +4808,19 @@
         <v>3300899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3263833</v>
+        <v>3265200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3333235</v>
+        <v>3332994</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8866984325954302</v>
+        <v>0.8866984325954304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8767416253968607</v>
+        <v>0.8771087860048121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8953847198538472</v>
+        <v>0.8953199662485136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7936</v>
@@ -4829,19 +4829,19 @@
         <v>6657827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6611309</v>
+        <v>6611775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6700357</v>
+        <v>6701692</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9197571694440134</v>
+        <v>0.9197571694440133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9133308887681957</v>
+        <v>0.9133952882981448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9256325543664492</v>
+        <v>0.9258170353904465</v>
       </c>
     </row>
     <row r="15">
